--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.32975033333333</v>
+        <v>29.80827733333334</v>
       </c>
       <c r="N2">
-        <v>48.989251</v>
+        <v>89.42483200000001</v>
       </c>
       <c r="O2">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940222</v>
       </c>
       <c r="P2">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940221</v>
       </c>
       <c r="Q2">
-        <v>20.251813438643</v>
+        <v>36.967599574976</v>
       </c>
       <c r="R2">
-        <v>182.266320947787</v>
+        <v>332.708396174784</v>
       </c>
       <c r="S2">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940222</v>
       </c>
       <c r="T2">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>80.453003</v>
       </c>
       <c r="O3">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="P3">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="Q3">
         <v>33.258708269179</v>
@@ -632,10 +632,10 @@
         <v>299.328374422611</v>
       </c>
       <c r="S3">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="T3">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.620050333333333</v>
+        <v>4.620050333333332</v>
       </c>
       <c r="N4">
         <v>13.860151</v>
       </c>
       <c r="O4">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="P4">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="Q4">
         <v>5.729689402342999</v>
@@ -694,10 +694,10 @@
         <v>51.56720462108699</v>
       </c>
       <c r="S4">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="T4">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
     </row>
   </sheetData>
